--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3159.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3159.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.917503082836378</v>
+        <v>0.8156942129135132</v>
       </c>
       <c r="B1">
-        <v>2.29378860455438</v>
+        <v>1.181926608085632</v>
       </c>
       <c r="C1">
-        <v>2.38475070961164</v>
+        <v>2.309945583343506</v>
       </c>
       <c r="D1">
-        <v>3.062101254699552</v>
+        <v>3.946348667144775</v>
       </c>
       <c r="E1">
-        <v>4.51659397440809</v>
+        <v>1.920693159103394</v>
       </c>
     </row>
   </sheetData>
